--- a/Excel-worksheets/Lecture03_Linear_Regression.xlsx
+++ b/Excel-worksheets/Lecture03_Linear_Regression.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Instructions" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,6 +15,578 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+  <si>
+    <t>Linear Regression Matrix Operations Practice Worksheet</t>
+  </si>
+  <si>
+    <t>[Learning Objectives]</t>
+  </si>
+  <si>
+    <t>1. Understand linear regression using matrix form input data and weights</t>
+  </si>
+  <si>
+    <t>2. Calculate forward propagation through Matrix Multiplication</t>
+  </si>
+  <si>
+    <t>3. Calculate MSE loss function gradient (matrix differentiation)</t>
+  </si>
+  <si>
+    <t>4. Update weight matrix through backpropagation</t>
+  </si>
+  <si>
+    <t>[Network Structure]</t>
+  </si>
+  <si>
+    <t>• Input matrix X: 10 samples × 8 features (10×8 matrix)</t>
+  </si>
+  <si>
+    <t>• Weight matrix W: 8 features × 1 output (8×1 vector)</t>
+  </si>
+  <si>
+    <t>• Bias b: Scalar (applied equally to all samples)</t>
+  </si>
+  <si>
+    <t>• Output Y_pred: 10 samples × 1 output (10×1 vector)</t>
+  </si>
+  <si>
+    <t>• Loss function: MSE (Mean Squared Error)</t>
+  </si>
+  <si>
+    <t>[Mathematical Expression]</t>
+  </si>
+  <si>
+    <t>Forward:    Y_pred = X · W + b     (Matrix multiplication + broadcasting)</t>
+  </si>
+  <si>
+    <t>Loss:       L = (1/2n) × Σ(y_pred - y_true)²</t>
+  </si>
+  <si>
+    <t>Gradient:   ∂L/∂W = (1/n) × X^T · (Y_pred - Y_true)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            ∂L/∂b = (1/n) × Σ(y_pred - y_true)</t>
+  </si>
+  <si>
+    <t>Update:     W_new = W - lr × ∂L/∂W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            b_new = b - lr × ∂L/∂b</t>
+  </si>
+  <si>
+    <t>[Color Legend]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Input matrix (X)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Weight (W)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Output/Prediction (Y_pred)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Gradient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Student input cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ■ Wrong</t>
+  </si>
+  <si>
+    <t>[How to Use]</t>
+  </si>
+  <si>
+    <t>1. Enter calculation results in yellow cells in Forward_Propagation sheet</t>
+  </si>
+  <si>
+    <t>2. Check ✓(correct) or ✗(wrong) in verification cells</t>
+  </si>
+  <si>
+    <t>3. Tolerance: 0.0001 (up to 4 decimal places)</t>
+  </si>
+  <si>
+    <t>4. Hint: Matrix multiplication is calculated in 'row × column' order</t>
+  </si>
+  <si>
+    <t>Forward Propagation - Matrix Operations</t>
+  </si>
+  <si>
+    <t>Progress:</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>s1</t>
+  </si>
+  <si>
+    <t>w1</t>
+  </si>
+  <si>
+    <t>y1</t>
+  </si>
+  <si>
+    <t>s2</t>
+  </si>
+  <si>
+    <t>w2</t>
+  </si>
+  <si>
+    <t>y2</t>
+  </si>
+  <si>
+    <t>s3</t>
+  </si>
+  <si>
+    <t>w3</t>
+  </si>
+  <si>
+    <t>y3</t>
+  </si>
+  <si>
+    <t>s4</t>
+  </si>
+  <si>
+    <t>w4</t>
+  </si>
+  <si>
+    <t>y4</t>
+  </si>
+  <si>
+    <t>s5</t>
+  </si>
+  <si>
+    <t>w5</t>
+  </si>
+  <si>
+    <t>y5</t>
+  </si>
+  <si>
+    <t>s6</t>
+  </si>
+  <si>
+    <t>w6</t>
+  </si>
+  <si>
+    <t>y6</t>
+  </si>
+  <si>
+    <t>s7</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>y7</t>
+  </si>
+  <si>
+    <t>s8</t>
+  </si>
+  <si>
+    <t>w8</t>
+  </si>
+  <si>
+    <t>y8</t>
+  </si>
+  <si>
+    <t>s9</t>
+  </si>
+  <si>
+    <t>y9</t>
+  </si>
+  <si>
+    <t>s10</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>y10</t>
+  </si>
+  <si>
+    <t>Formula: z_i = x_i1×w1 + x_i2×w2 + ... + x_i8×w8</t>
+  </si>
+  <si>
+    <t>Formula (product of each term)</t>
+  </si>
+  <si>
+    <t>Total (z)</t>
+  </si>
+  <si>
+    <t>Student input</t>
+  </si>
+  <si>
+    <t>Verification</t>
+  </si>
+  <si>
+    <t>1.0×0.20 + 2.0×0.30 + 0.0×-0.10 + -1.0×0.40 + ...</t>
+  </si>
+  <si>
+    <t>0.5×0.20 + 1.0×0.30 + 1.0×-0.10 + 0.0×0.40 + ...</t>
+  </si>
+  <si>
+    <t>2.0×0.20 + 0.0×0.30 + -1.0×-0.10 + 1.0×0.40 + ...</t>
+  </si>
+  <si>
+    <t>0.0×0.20 + 1.5×0.30 + 0.5×-0.10 + 0.5×0.40 + ...</t>
+  </si>
+  <si>
+    <t>1.0×0.20 + -1.0×0.30 + 2.0×-0.10 + 0.0×0.40 + ...</t>
+  </si>
+  <si>
+    <t>-0.5×0.20 + 1.0×0.30 + 0.0×-0.10 + 1.5×0.40 + ...</t>
+  </si>
+  <si>
+    <t>1.5×0.20 + 0.5×0.30 + 1.0×-0.10 + -0.5×0.40 + ...</t>
+  </si>
+  <si>
+    <t>0.0×0.20 + 2.0×0.30 + -0.5×-0.10 + 0.0×0.40 + ...</t>
+  </si>
+  <si>
+    <t>1.0×0.20 + 0.0×0.30 + 1.0×-0.10 + 1.0×0.40 + ...</t>
+  </si>
+  <si>
+    <t>0.5×0.20 + 0.5×0.30 + 0.5×-0.10 + 0.5×0.40 + ...</t>
+  </si>
+  <si>
+    <t>Formula: y_pred_i = z_i + b (b = 0.5)</t>
+  </si>
+  <si>
+    <t>z_i</t>
+  </si>
+  <si>
+    <t>+ b</t>
+  </si>
+  <si>
+    <t>y_pred</t>
+  </si>
+  <si>
+    <t>+ 0.5</t>
+  </si>
+  <si>
+    <t>y_true</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>error²</t>
+  </si>
+  <si>
+    <t>Formula: L = (1/2n) × Σ(error²)</t>
+  </si>
+  <si>
+    <t>Σ(error²) =</t>
+  </si>
+  <si>
+    <t>n (sample count) =</t>
+  </si>
+  <si>
+    <t>Loss =</t>
+  </si>
+  <si>
+    <t>Final Loss (MSE): 0.538938</t>
+  </si>
+  <si>
+    <t>Backward Propagation - Gradient Calculation</t>
+  </si>
+  <si>
+    <t>Learning rate (lr):</t>
+  </si>
+  <si>
+    <t>Formula: ∂L/∂y_pred_i = (1/n) × (y_pred_i - y_true_i)</t>
+  </si>
+  <si>
+    <t>Calculation</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred</t>
+  </si>
+  <si>
+    <t>(1/10) × (0.9000 - 2.00)</t>
+  </si>
+  <si>
+    <t>(1/10) × (0.4500 - 1.50)</t>
+  </si>
+  <si>
+    <t>(1/10) × (1.7000 - 1.00)</t>
+  </si>
+  <si>
+    <t>(1/10) × (0.9750 - 2.50)</t>
+  </si>
+  <si>
+    <t>(1/10) × (0.1250 - 1.80)</t>
+  </si>
+  <si>
+    <t>(1/10) × (1.2000 - 2.20)</t>
+  </si>
+  <si>
+    <t>(1/10) × (0.9500 - 1.20)</t>
+  </si>
+  <si>
+    <t>(1/10) × (0.9500 - 1.70)</t>
+  </si>
+  <si>
+    <t>(1/10) × (1.3000 - 1.40)</t>
+  </si>
+  <si>
+    <t>Formula: ∂L/∂W = X^T · (∂L/∂Y_pred) = X^T · dL_dY</t>
+  </si>
+  <si>
+    <t>Each weight: ∂L/∂w_j = Σ_i (x_ij × ∂L/∂y_pred_i)</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Calculation (column j of X · dL_dY)</t>
+  </si>
+  <si>
+    <t>∂L/∂w</t>
+  </si>
+  <si>
+    <t>∂L/∂w1</t>
+  </si>
+  <si>
+    <t>1.0×-0.1100 + 0.5×-0.1050 + 2.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w2</t>
+  </si>
+  <si>
+    <t>2.0×-0.1100 + 1.0×-0.1050 + 0.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w3</t>
+  </si>
+  <si>
+    <t>0.0×-0.1100 + 1.0×-0.1050 + -1.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w4</t>
+  </si>
+  <si>
+    <t>-1.0×-0.1100 + 0.0×-0.1050 + 1.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w5</t>
+  </si>
+  <si>
+    <t>1.0×-0.1100 + 0.5×-0.1050 + 0.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w6</t>
+  </si>
+  <si>
+    <t>0.0×-0.1100 + -1.0×-0.1050 + 0.5×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w7</t>
+  </si>
+  <si>
+    <t>0.5×-0.1100 + 0.0×-0.1050 + 1.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂w8</t>
+  </si>
+  <si>
+    <t>-0.5×-0.1100 + 1.0×-0.1050 + 0.0×0.0700 + ...</t>
+  </si>
+  <si>
+    <t>∂L/∂b</t>
+  </si>
+  <si>
+    <t>Σ(∂L/∂y_pred_i) = Sum of all gradients</t>
+  </si>
+  <si>
+    <t>Formula: w_new = w_old - lr × ∂L/∂w (lr = 0.01)</t>
+  </si>
+  <si>
+    <t>Existing value</t>
+  </si>
+  <si>
+    <t>Gradient</t>
+  </si>
+  <si>
+    <t>New value</t>
+  </si>
+  <si>
+    <t>Loss before update:</t>
+  </si>
+  <si>
+    <t>Loss after update:</t>
+  </si>
+  <si>
+    <t>Loss reduction:</t>
+  </si>
+  <si>
+    <t>Answer Key</t>
+  </si>
+  <si>
+    <t>y_pred_i</t>
+  </si>
+  <si>
+    <t>Sample 1</t>
+  </si>
+  <si>
+    <t>Sample 2</t>
+  </si>
+  <si>
+    <t>Sample 3</t>
+  </si>
+  <si>
+    <t>Sample 4</t>
+  </si>
+  <si>
+    <t>Sample 5</t>
+  </si>
+  <si>
+    <t>Sample 6</t>
+  </si>
+  <si>
+    <t>Sample 7</t>
+  </si>
+  <si>
+    <t>Sample 8</t>
+  </si>
+  <si>
+    <t>Sample 9</t>
+  </si>
+  <si>
+    <t>Sample 10</t>
+  </si>
+  <si>
+    <t>error_1</t>
+  </si>
+  <si>
+    <t>error_2</t>
+  </si>
+  <si>
+    <t>error_3</t>
+  </si>
+  <si>
+    <t>error_4</t>
+  </si>
+  <si>
+    <t>error_5</t>
+  </si>
+  <si>
+    <t>error_6</t>
+  </si>
+  <si>
+    <t>error_7</t>
+  </si>
+  <si>
+    <t>error_8</t>
+  </si>
+  <si>
+    <t>error_9</t>
+  </si>
+  <si>
+    <t>error_10</t>
+  </si>
+  <si>
+    <t>Loss (MSE)</t>
+  </si>
+  <si>
+    <t>∂L/∂Y_pred:</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_1</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_2</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_3</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_4</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_5</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_6</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_7</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_8</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_9</t>
+  </si>
+  <si>
+    <t>∂L/∂y_pred_10</t>
+  </si>
+  <si>
+    <t>∂L/∂W:</t>
+  </si>
+  <si>
+    <t>w1_new</t>
+  </si>
+  <si>
+    <t>w2_new</t>
+  </si>
+  <si>
+    <t>w3_new</t>
+  </si>
+  <si>
+    <t>w4_new</t>
+  </si>
+  <si>
+    <t>w5_new</t>
+  </si>
+  <si>
+    <t>w6_new</t>
+  </si>
+  <si>
+    <t>w7_new</t>
+  </si>
+  <si>
+    <t>w8_new</t>
+  </si>
+  <si>
+    <t>b_new</t>
+  </si>
+  <si>
+    <t>Loss after update</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -141,64 +713,66 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="medium"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="29">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="8" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="10" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="10" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="2" fillId="6" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="9" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -218,75 +792,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -585,256 +1091,186 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="90" customWidth="1" min="1" max="1"/>
+    <col customWidth="1" max="1" min="1" width="90"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Linear Regression Matrix Operations Practice Worksheet</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <f>=====================================================================</f>
         <v/>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>[Learning Objectives]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>1. Understand linear regression using matrix form input data and weights</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>2. Calculate forward propagation through Matrix Multiplication</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>3. Calculate MSE loss function gradient (matrix differentiation)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>4. Update weight matrix through backpropagation</t>
-        </is>
-      </c>
-    </row>
-    <row r="10"/>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>[Network Structure]</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>• Input matrix X: 10 samples × 8 features (10×8 matrix)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>• Weight matrix W: 8 features × 1 output (8×1 vector)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>• Bias b: Scalar (applied equally to all samples)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>• Output Y_pred: 10 samples × 1 output (10×1 vector)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>• Loss function: MSE (Mean Squared Error)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17"/>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>[Mathematical Expression]</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>Forward:    Y_pred = X · W + b     (Matrix multiplication + broadcasting)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>Loss:       L = (1/2n) × Σ(y_pred - y_true)²</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>Gradient:   ∂L/∂W = (1/n) × X^T · (Y_pred - Y_true)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            ∂L/∂b = (1/n) × Σ(y_pred - y_true)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>Update:     W_new = W - lr × ∂L/∂W</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            b_new = b - lr × ∂L/∂b</t>
-        </is>
-      </c>
-    </row>
-    <row r="25"/>
-    <row r="26">
-      <c r="A26" s="3" t="inlineStr">
-        <is>
-          <t>[Color Legend]</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Input matrix (X)</t>
-        </is>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B27" s="5" t="n"/>
     </row>
-    <row r="28">
-      <c r="A28" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Weight (W)</t>
-        </is>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="B28" s="6" t="n"/>
     </row>
-    <row r="29">
-      <c r="A29" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Output/Prediction (Y_pred)</t>
-        </is>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="B29" s="7" t="n"/>
     </row>
-    <row r="30">
-      <c r="A30" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Gradient</t>
-        </is>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B30" s="8" t="n"/>
     </row>
-    <row r="31">
-      <c r="A31" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Student input cell</t>
-        </is>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B31" s="9" t="n"/>
     </row>
-    <row r="32">
-      <c r="A32" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Answer</t>
-        </is>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B32" s="10" t="n"/>
     </row>
-    <row r="33">
-      <c r="A33" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">  ■ Wrong</t>
-        </is>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B33" s="11" t="n"/>
     </row>
-    <row r="34"/>
-    <row r="35">
-      <c r="A35" s="3" t="inlineStr">
-        <is>
-          <t>[How to Use]</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="inlineStr">
-        <is>
-          <t>1. Enter calculation results in yellow cells in Forward_Propagation sheet</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="inlineStr">
-        <is>
-          <t>2. Check ✓(correct) or ✗(wrong) in verification cells</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="inlineStr">
-        <is>
-          <t>3. Tolerance: 0.0001 (up to 4 decimal places)</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="inlineStr">
-        <is>
-          <t>4. Hint: Matrix multiplication is calculated in 'row × column' order</t>
-        </is>
+    <row r="35" spans="1:2">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -850,50 +1286,44 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
-    <col width="8" customWidth="1" min="4" max="4"/>
-    <col width="8" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
-    <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="4" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
-    <col width="4" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
-    <col width="8" customWidth="1" min="18" max="18"/>
-    <col width="8" customWidth="1" min="19" max="19"/>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="40"/>
+    <col customWidth="1" max="3" min="3" width="8"/>
+    <col customWidth="1" max="4" min="4" width="12"/>
+    <col customWidth="1" max="5" min="5" width="14"/>
+    <col customWidth="1" max="6" min="6" width="12"/>
+    <col customWidth="1" max="7" min="7" width="8"/>
+    <col customWidth="1" max="8" min="8" width="8"/>
+    <col customWidth="1" max="9" min="9" width="8"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="14"/>
+    <col customWidth="1" max="12" min="12" width="12"/>
+    <col customWidth="1" max="13" min="13" width="8"/>
+    <col customWidth="1" max="14" min="14" width="4"/>
+    <col customWidth="1" max="15" min="15" width="8"/>
+    <col customWidth="1" max="16" min="16" width="8"/>
+    <col customWidth="1" max="17" min="17" width="8"/>
+    <col customWidth="1" max="18" min="18" width="8"/>
+    <col customWidth="1" max="19" min="19" width="8"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Forward Propagation - Matrix Operations</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Progress:</t>
-        </is>
+    <row r="1" spans="1:16">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
         <f>COUNTIF(Q:Q,"✓")/12*100&amp;"%"</f>
         <v/>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5">
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <f>== Input Matrix X (10×8) ===</f>
         <v/>
@@ -907,58 +1337,38 @@
         <v/>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="12" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="inlineStr">
-        <is>
-          <t>x1</t>
-        </is>
-      </c>
-      <c r="C6" s="13" t="inlineStr">
-        <is>
-          <t>x2</t>
-        </is>
-      </c>
-      <c r="D6" s="13" t="inlineStr">
-        <is>
-          <t>x3</t>
-        </is>
-      </c>
-      <c r="E6" s="13" t="inlineStr">
-        <is>
-          <t>x4</t>
-        </is>
-      </c>
-      <c r="F6" s="13" t="inlineStr">
-        <is>
-          <t>x5</t>
-        </is>
-      </c>
-      <c r="G6" s="13" t="inlineStr">
-        <is>
-          <t>x6</t>
-        </is>
-      </c>
-      <c r="H6" s="13" t="inlineStr">
-        <is>
-          <t>x7</t>
-        </is>
-      </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>x8</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
+    <row r="6" spans="1:16">
+      <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B7" s="14" t="n">
         <v>1</v>
@@ -984,28 +1394,22 @@
       <c r="I7" s="14" t="n">
         <v>-0.5</v>
       </c>
-      <c r="L7" s="12" t="inlineStr">
-        <is>
-          <t>w1</t>
-        </is>
+      <c r="L7" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="M7" s="15" t="n">
         <v>0.2</v>
       </c>
-      <c r="O7" s="12" t="inlineStr">
-        <is>
-          <t>y1</t>
-        </is>
+      <c r="O7" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="P7" s="16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="12" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
+    <row r="8" spans="1:16">
+      <c r="A8" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B8" s="14" t="n">
         <v>0.5</v>
@@ -1031,28 +1435,22 @@
       <c r="I8" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L8" s="12" t="inlineStr">
-        <is>
-          <t>w2</t>
-        </is>
+      <c r="L8" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="M8" s="15" t="n">
         <v>0.3</v>
       </c>
-      <c r="O8" s="12" t="inlineStr">
-        <is>
-          <t>y2</t>
-        </is>
+      <c r="O8" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="P8" s="16" t="n">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="12" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
+    <row r="9" spans="1:16">
+      <c r="A9" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B9" s="14" t="n">
         <v>2</v>
@@ -1078,28 +1476,22 @@
       <c r="I9" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="12" t="inlineStr">
-        <is>
-          <t>w3</t>
-        </is>
+      <c r="L9" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M9" s="15" t="n">
         <v>-0.1</v>
       </c>
-      <c r="O9" s="12" t="inlineStr">
-        <is>
-          <t>y3</t>
-        </is>
+      <c r="O9" s="12" t="s">
+        <v>51</v>
       </c>
       <c r="P9" s="16" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="12" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
+    <row r="10" spans="1:16">
+      <c r="A10" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B10" s="14" t="n">
         <v>0</v>
@@ -1125,28 +1517,22 @@
       <c r="I10" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="L10" s="12" t="inlineStr">
-        <is>
-          <t>w4</t>
-        </is>
+      <c r="L10" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="M10" s="15" t="n">
         <v>0.4</v>
       </c>
-      <c r="O10" s="12" t="inlineStr">
-        <is>
-          <t>y4</t>
-        </is>
+      <c r="O10" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="P10" s="16" t="n">
         <v>2.5</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
+    <row r="11" spans="1:16">
+      <c r="A11" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B11" s="14" t="n">
         <v>1</v>
@@ -1172,28 +1558,22 @@
       <c r="I11" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="L11" s="12" t="inlineStr">
-        <is>
-          <t>w5</t>
-        </is>
+      <c r="L11" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="M11" s="15" t="n">
         <v>-0.2</v>
       </c>
-      <c r="O11" s="12" t="inlineStr">
-        <is>
-          <t>y5</t>
-        </is>
+      <c r="O11" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="P11" s="16" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
+    <row r="12" spans="1:16">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="14" t="n">
         <v>-0.5</v>
@@ -1219,28 +1599,22 @@
       <c r="I12" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="L12" s="12" t="inlineStr">
-        <is>
-          <t>w6</t>
-        </is>
+      <c r="L12" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="M12" s="15" t="n">
         <v>0.1</v>
       </c>
-      <c r="O12" s="12" t="inlineStr">
-        <is>
-          <t>y6</t>
-        </is>
+      <c r="O12" s="12" t="s">
+        <v>60</v>
       </c>
       <c r="P12" s="16" t="n">
         <v>2.2</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
+    <row r="13" spans="1:16">
+      <c r="A13" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B13" s="14" t="n">
         <v>1.5</v>
@@ -1266,28 +1640,22 @@
       <c r="I13" s="14" t="n">
         <v>-1</v>
       </c>
-      <c r="L13" s="12" t="inlineStr">
-        <is>
-          <t>w7</t>
-        </is>
+      <c r="L13" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="M13" s="15" t="n">
         <v>0.25</v>
       </c>
-      <c r="O13" s="12" t="inlineStr">
-        <is>
-          <t>y7</t>
-        </is>
+      <c r="O13" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="P13" s="16" t="n">
         <v>1.2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t>s8</t>
-        </is>
+    <row r="14" spans="1:16">
+      <c r="A14" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B14" s="14" t="n">
         <v>0</v>
@@ -1313,28 +1681,22 @@
       <c r="I14" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="L14" s="12" t="inlineStr">
-        <is>
-          <t>w8</t>
-        </is>
+      <c r="L14" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="M14" s="15" t="n">
         <v>-0.15</v>
       </c>
-      <c r="O14" s="12" t="inlineStr">
-        <is>
-          <t>y8</t>
-        </is>
+      <c r="O14" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="P14" s="16" t="n">
         <v>1.7</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>s9</t>
-        </is>
+    <row r="15" spans="1:16">
+      <c r="A15" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B15" s="14" t="n">
         <v>1</v>
@@ -1360,20 +1722,16 @@
       <c r="I15" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="O15" s="12" t="inlineStr">
-        <is>
-          <t>y9</t>
-        </is>
+      <c r="O15" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="P15" s="16" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t>s10</t>
-        </is>
+    <row r="16" spans="1:16">
+      <c r="A16" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B16" s="14" t="n">
         <v>0.5</v>
@@ -1399,586 +1757,457 @@
       <c r="I16" s="14" t="n">
         <v>0.5</v>
       </c>
-      <c r="L16" s="12" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
+      <c r="L16" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="M16" s="17" t="n">
         <v>0.5</v>
       </c>
-      <c r="O16" s="12" t="inlineStr">
-        <is>
-          <t>y10</t>
-        </is>
+      <c r="O16" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="P16" s="16" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20">
+    <row r="20" spans="1:16">
       <c r="A20" s="3">
         <f>== Step 1: Matrix Multiplication (X · W) - Calculation per Sample ===</f>
         <v/>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="18" t="inlineStr">
-        <is>
-          <t>Formula: z_i = x_i1×w1 + x_i2×w2 + ... + x_i8×w8</t>
-        </is>
-      </c>
-    </row>
-    <row r="22"/>
-    <row r="23">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B23" s="19" t="inlineStr">
-        <is>
-          <t>Formula (product of each term)</t>
-        </is>
-      </c>
-      <c r="J23" s="19" t="inlineStr">
-        <is>
-          <t>Total (z)</t>
-        </is>
-      </c>
-      <c r="K23" s="19" t="inlineStr">
-        <is>
-          <t>Student input</t>
-        </is>
-      </c>
-      <c r="L23" s="19" t="inlineStr">
-        <is>
-          <t>Verification</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="12" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="B24" s="20" t="inlineStr">
-        <is>
-          <t>1.0×0.20 + 2.0×0.30 + 0.0×-0.10 + -1.0×0.40 + ...</t>
-        </is>
+    <row r="21" spans="1:16">
+      <c r="A21" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="24" spans="1:16">
+      <c r="A24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="J24" s="20" t="n">
         <v>0.9</v>
       </c>
       <c r="K24" s="21" t="n"/>
       <c r="L24">
-        <f>IF(ABS(K24-Answer_Key!C3)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="12" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="B25" s="20" t="inlineStr">
-        <is>
-          <t>0.5×0.20 + 1.0×0.30 + 1.0×-0.10 + 0.0×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K24-Answer_Key!C4)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="25" spans="1:16">
+      <c r="A25" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="J25" s="20" t="n">
         <v>0.45</v>
       </c>
       <c r="K25" s="21" t="n"/>
       <c r="L25">
-        <f>IF(ABS(K25-Answer_Key!C4)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="B26" s="20" t="inlineStr">
-        <is>
-          <t>2.0×0.20 + 0.0×0.30 + -1.0×-0.10 + 1.0×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K25-Answer_Key!C5)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="26" spans="1:16">
+      <c r="A26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>79</v>
       </c>
       <c r="J26" s="20" t="n">
         <v>1.7</v>
       </c>
       <c r="K26" s="21" t="n"/>
       <c r="L26">
-        <f>IF(ABS(K26-Answer_Key!C5)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="12" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="B27" s="20" t="inlineStr">
-        <is>
-          <t>0.0×0.20 + 1.5×0.30 + 0.5×-0.10 + 0.5×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K26-Answer_Key!C6)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="27" spans="1:16">
+      <c r="A27" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="J27" s="20" t="n">
         <v>0.975</v>
       </c>
       <c r="K27" s="21" t="n"/>
       <c r="L27">
-        <f>IF(ABS(K27-Answer_Key!C6)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="B28" s="20" t="inlineStr">
-        <is>
-          <t>1.0×0.20 + -1.0×0.30 + 2.0×-0.10 + 0.0×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K27-Answer_Key!C7)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="28" spans="1:16">
+      <c r="A28" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>81</v>
       </c>
       <c r="J28" s="20" t="n">
         <v>0.125</v>
       </c>
       <c r="K28" s="21" t="n"/>
       <c r="L28">
-        <f>IF(ABS(K28-Answer_Key!C7)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="B29" s="20" t="inlineStr">
-        <is>
-          <t>-0.5×0.20 + 1.0×0.30 + 0.0×-0.10 + 1.5×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K28-Answer_Key!C8)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="29" spans="1:16">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="J29" s="20" t="n">
         <v>1.2</v>
       </c>
       <c r="K29" s="21" t="n"/>
       <c r="L29">
-        <f>IF(ABS(K29-Answer_Key!C8)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="B30" s="20" t="inlineStr">
-        <is>
-          <t>1.5×0.20 + 0.5×0.30 + 1.0×-0.10 + -0.5×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K29-Answer_Key!C9)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="30" spans="1:16">
+      <c r="A30" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>83</v>
       </c>
       <c r="J30" s="20" t="n">
         <v>0.95</v>
       </c>
       <c r="K30" s="21" t="n"/>
       <c r="L30">
-        <f>IF(ABS(K30-Answer_Key!C9)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="12" t="inlineStr">
-        <is>
-          <t>s8</t>
-        </is>
-      </c>
-      <c r="B31" s="20" t="inlineStr">
-        <is>
-          <t>0.0×0.20 + 2.0×0.30 + -0.5×-0.10 + 0.0×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K30-Answer_Key!C10)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="31" spans="1:16">
+      <c r="A31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="J31" s="20" t="n">
         <v>0.95</v>
       </c>
       <c r="K31" s="21" t="n"/>
       <c r="L31">
-        <f>IF(ABS(K31-Answer_Key!C10)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
-        <is>
-          <t>s9</t>
-        </is>
-      </c>
-      <c r="B32" s="20" t="inlineStr">
-        <is>
-          <t>1.0×0.20 + 0.0×0.30 + 1.0×-0.10 + 1.0×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K31-Answer_Key!C11)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="32" spans="1:16">
+      <c r="A32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>85</v>
       </c>
       <c r="J32" s="20" t="n">
         <v>1.3</v>
       </c>
       <c r="K32" s="21" t="n"/>
       <c r="L32">
-        <f>IF(ABS(K32-Answer_Key!C11)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>s10</t>
-        </is>
-      </c>
-      <c r="B33" s="20" t="inlineStr">
-        <is>
-          <t>0.5×0.20 + 0.5×0.30 + 0.5×-0.10 + 0.5×0.40 + ...</t>
-        </is>
+        <f>IF(ABS(K32-Answer_Key!C12)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="33" spans="1:16">
+      <c r="A33" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>86</v>
       </c>
       <c r="J33" s="20" t="n">
         <v>0.9</v>
       </c>
       <c r="K33" s="21" t="n"/>
       <c r="L33">
-        <f>IF(ABS(K33-Answer_Key!C12)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36">
+        <f>IF(ABS(K33-Answer_Key!C13)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="34" spans="1:16"/>
+    <row customHeight="1" ht="15" r="35" spans="1:16"/>
+    <row customHeight="1" ht="15" r="36" spans="1:16">
       <c r="A36" s="3">
         <f>== Step 2: Add Bias (z + b) → Y_pred ===</f>
         <v/>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="18" t="inlineStr">
-        <is>
-          <t>Formula: y_pred_i = z_i + b (b = 0.5)</t>
-        </is>
-      </c>
-    </row>
-    <row r="38"/>
-    <row r="39">
-      <c r="A39" s="22" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B39" s="22" t="inlineStr">
-        <is>
-          <t>z_i</t>
-        </is>
-      </c>
-      <c r="C39" s="22" t="inlineStr">
-        <is>
-          <t>+ b</t>
-        </is>
-      </c>
-      <c r="D39" s="22" t="inlineStr">
-        <is>
-          <t>y_pred</t>
-        </is>
-      </c>
-      <c r="E39" s="22" t="inlineStr">
-        <is>
-          <t>Student input</t>
-        </is>
-      </c>
-      <c r="F39" s="22" t="inlineStr">
-        <is>
-          <t>Verification</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="12" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
+    <row customHeight="1" ht="15" r="37" spans="1:16">
+      <c r="A37" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="38" spans="1:16"/>
+    <row customHeight="1" ht="15" r="39" spans="1:16">
+      <c r="A39" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="40" spans="1:16">
+      <c r="A40" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B40" s="20" t="n">
         <v>0.9</v>
       </c>
-      <c r="C40" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C40" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D40" s="23" t="n">
         <v>0.9</v>
       </c>
       <c r="E40" s="24" t="n"/>
       <c r="F40">
-        <f>IF(ABS(E40-Answer_Key!D3)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="12" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
+        <f>IF(ABS(E40-Answer_Key!D4)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="41" spans="1:16">
+      <c r="A41" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="20" t="n">
         <v>0.45</v>
       </c>
-      <c r="C41" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C41" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D41" s="23" t="n">
         <v>0.45</v>
       </c>
       <c r="E41" s="24" t="n"/>
       <c r="F41">
-        <f>IF(ABS(E41-Answer_Key!D4)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="12" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
+        <f>IF(ABS(E41-Answer_Key!D5)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="42" spans="1:16">
+      <c r="A42" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B42" s="20" t="n">
         <v>1.7</v>
       </c>
-      <c r="C42" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C42" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D42" s="23" t="n">
         <v>1.7</v>
       </c>
       <c r="E42" s="24" t="n"/>
       <c r="F42">
-        <f>IF(ABS(E42-Answer_Key!D5)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
+        <f>IF(ABS(E42-Answer_Key!D6)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="43" spans="1:16">
+      <c r="A43" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B43" s="20" t="n">
         <v>0.975</v>
       </c>
-      <c r="C43" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C43" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D43" s="23" t="n">
         <v>0.975</v>
       </c>
       <c r="E43" s="24" t="n"/>
       <c r="F43">
-        <f>IF(ABS(E43-Answer_Key!D6)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
+        <f>IF(ABS(E43-Answer_Key!D7)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="44" spans="1:16">
+      <c r="A44" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B44" s="20" t="n">
         <v>0.125</v>
       </c>
-      <c r="C44" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C44" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D44" s="23" t="n">
         <v>0.125</v>
       </c>
       <c r="E44" s="24" t="n"/>
       <c r="F44">
-        <f>IF(ABS(E44-Answer_Key!D7)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
+        <f>IF(ABS(E44-Answer_Key!D8)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="45" spans="1:16">
+      <c r="A45" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B45" s="20" t="n">
         <v>1.2</v>
       </c>
-      <c r="C45" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C45" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D45" s="23" t="n">
         <v>1.2</v>
       </c>
       <c r="E45" s="24" t="n"/>
       <c r="F45">
-        <f>IF(ABS(E45-Answer_Key!D8)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
+        <f>IF(ABS(E45-Answer_Key!D9)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="46" spans="1:16">
+      <c r="A46" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B46" s="20" t="n">
         <v>0.95</v>
       </c>
-      <c r="C46" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C46" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D46" s="23" t="n">
         <v>0.95</v>
       </c>
       <c r="E46" s="24" t="n"/>
       <c r="F46">
-        <f>IF(ABS(E46-Answer_Key!D9)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
-        <is>
-          <t>s8</t>
-        </is>
+        <f>IF(ABS(E46-Answer_Key!D10)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="47" spans="1:16">
+      <c r="A47" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B47" s="20" t="n">
         <v>0.95</v>
       </c>
-      <c r="C47" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C47" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D47" s="23" t="n">
         <v>0.95</v>
       </c>
       <c r="E47" s="24" t="n"/>
       <c r="F47">
-        <f>IF(ABS(E47-Answer_Key!D10)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
-        <is>
-          <t>s9</t>
-        </is>
+        <f>IF(ABS(E47-Answer_Key!D11)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="48" spans="1:16">
+      <c r="A48" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B48" s="20" t="n">
         <v>1.3</v>
       </c>
-      <c r="C48" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C48" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="23" t="n">
         <v>1.3</v>
       </c>
       <c r="E48" s="24" t="n"/>
       <c r="F48">
-        <f>IF(ABS(E48-Answer_Key!D11)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>s10</t>
-        </is>
+        <f>IF(ABS(E48-Answer_Key!D12)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="49" spans="1:16">
+      <c r="A49" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B49" s="20" t="n">
         <v>0.9</v>
       </c>
-      <c r="C49" s="20" t="inlineStr">
-        <is>
-          <t>+ 0.5</t>
-        </is>
+      <c r="C49" s="20" t="s">
+        <v>91</v>
       </c>
       <c r="D49" s="23" t="n">
         <v>0.9</v>
       </c>
       <c r="E49" s="24" t="n"/>
       <c r="F49">
-        <f>IF(ABS(E49-Answer_Key!D12)&lt;0.0001,"✓","✗")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50"/>
-    <row r="51"/>
-    <row r="52">
+        <f>IF(ABS(E49-Answer_Key!D13)&lt;0.001,"✓","✗")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="3">
         <f>== Step 3: Error Calculation (error = y_pred - y_true) ===</f>
         <v/>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54">
-      <c r="A54" s="22" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B54" s="22" t="inlineStr">
-        <is>
-          <t>y_pred</t>
-        </is>
-      </c>
-      <c r="C54" s="22" t="inlineStr">
-        <is>
-          <t>y_true</t>
-        </is>
-      </c>
-      <c r="D54" s="22" t="inlineStr">
-        <is>
-          <t>error</t>
-        </is>
-      </c>
-      <c r="E54" s="22" t="inlineStr">
-        <is>
-          <t>error²</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
+    <row r="54" spans="1:16">
+      <c r="A54" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B55" s="23" t="n">
         <v>0.9</v>
@@ -1993,11 +2222,9 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
+    <row r="56" spans="1:16">
+      <c r="A56" s="12" t="s">
+        <v>46</v>
       </c>
       <c r="B56" s="23" t="n">
         <v>0.45</v>
@@ -2012,11 +2239,9 @@
         <v>1.1025</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
+    <row r="57" spans="1:16">
+      <c r="A57" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="B57" s="23" t="n">
         <v>1.7</v>
@@ -2031,11 +2256,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="12" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
+    <row r="58" spans="1:16">
+      <c r="A58" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="B58" s="23" t="n">
         <v>0.975</v>
@@ -2050,11 +2273,9 @@
         <v>2.3256</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="12" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
+    <row r="59" spans="1:16">
+      <c r="A59" s="12" t="s">
+        <v>55</v>
       </c>
       <c r="B59" s="23" t="n">
         <v>0.125</v>
@@ -2069,11 +2290,9 @@
         <v>2.8056</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="12" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
+    <row r="60" spans="1:16">
+      <c r="A60" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B60" s="23" t="n">
         <v>1.2</v>
@@ -2088,11 +2307,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="12" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
+    <row r="61" spans="1:16">
+      <c r="A61" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B61" s="23" t="n">
         <v>0.95</v>
@@ -2107,11 +2324,9 @@
         <v>0.0625</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="12" t="inlineStr">
-        <is>
-          <t>s8</t>
-        </is>
+    <row r="62" spans="1:16">
+      <c r="A62" s="12" t="s">
+        <v>64</v>
       </c>
       <c r="B62" s="23" t="n">
         <v>0.95</v>
@@ -2126,11 +2341,9 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="12" t="inlineStr">
-        <is>
-          <t>s9</t>
-        </is>
+    <row r="63" spans="1:16">
+      <c r="A63" s="12" t="s">
+        <v>67</v>
       </c>
       <c r="B63" s="23" t="n">
         <v>1.3</v>
@@ -2145,11 +2358,9 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="12" t="inlineStr">
-        <is>
-          <t>s10</t>
-        </is>
+    <row r="64" spans="1:16">
+      <c r="A64" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="B64" s="23" t="n">
         <v>0.9</v>
@@ -2164,46 +2375,36 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="65"/>
-    <row r="66">
+    <row r="66" spans="1:16">
       <c r="A66" s="3">
         <f>== Step 4: Calculate MSE Loss ===</f>
         <v/>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>Formula: L = (1/2n) × Σ(error²)</t>
-        </is>
-      </c>
-    </row>
-    <row r="68"/>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Σ(error²) =</t>
-        </is>
+    <row r="67" spans="1:16">
+      <c r="A67" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69" t="s">
+        <v>96</v>
       </c>
       <c r="B69" s="20" t="n">
         <v>10.77875</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>n (sample count) =</t>
-        </is>
+    <row r="70" spans="1:16">
+      <c r="A70" t="s">
+        <v>97</v>
       </c>
       <c r="B70" s="20" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="12" t="inlineStr">
-        <is>
-          <t>Loss =</t>
-        </is>
+    <row r="71" spans="1:16">
+      <c r="A71" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="B71" s="24" t="n"/>
       <c r="C71">
@@ -2211,38 +2412,35 @@
         <v/>
       </c>
     </row>
-    <row r="72"/>
-    <row r="73">
+    <row r="73" spans="1:16">
       <c r="A73" s="3">
         <f>== Result Summary ===</f>
         <v/>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="23" t="inlineStr">
-        <is>
-          <t>Final Loss (MSE): 0.538938</t>
-        </is>
+    <row r="74" spans="1:16">
+      <c r="A74" s="23" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="F1:F100">
-    <cfRule type="expression" priority="1" dxfId="0">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>L1="✓"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="1">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>L1="✗"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:L100">
-    <cfRule type="expression" priority="1" dxfId="0">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>L1="✓"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="1">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>L1="✗"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -2258,111 +2456,85 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="15" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="10" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
-    <col width="10" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
-    <col width="10" customWidth="1" min="11" max="11"/>
-    <col width="10" customWidth="1" min="12" max="12"/>
-    <col width="10" customWidth="1" min="13" max="13"/>
-    <col width="10" customWidth="1" min="14" max="14"/>
-    <col width="10" customWidth="1" min="15" max="15"/>
-    <col width="10" customWidth="1" min="16" max="16"/>
-    <col width="10" customWidth="1" min="17" max="17"/>
-    <col width="10" customWidth="1" min="18" max="18"/>
-    <col width="10" customWidth="1" min="19" max="19"/>
+    <col customWidth="1" max="1" min="1" width="15"/>
+    <col customWidth="1" max="2" min="2" width="35"/>
+    <col customWidth="1" max="3" min="3" width="10"/>
+    <col customWidth="1" max="4" min="4" width="10"/>
+    <col customWidth="1" max="5" min="5" width="10"/>
+    <col customWidth="1" max="6" min="6" width="10"/>
+    <col customWidth="1" max="7" min="7" width="10"/>
+    <col customWidth="1" max="8" min="8" width="10"/>
+    <col customWidth="1" max="9" min="9" width="10"/>
+    <col customWidth="1" max="10" min="10" width="10"/>
+    <col customWidth="1" max="11" min="11" width="10"/>
+    <col customWidth="1" max="12" min="12" width="10"/>
+    <col customWidth="1" max="13" min="13" width="10"/>
+    <col customWidth="1" max="14" min="14" width="10"/>
+    <col customWidth="1" max="15" min="15" width="10"/>
+    <col customWidth="1" max="16" min="16" width="10"/>
+    <col customWidth="1" max="17" min="17" width="10"/>
+    <col customWidth="1" max="18" min="18" width="10"/>
+    <col customWidth="1" max="19" min="19" width="10"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Backward Propagation - Gradient Calculation</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
-      <c r="A3" s="12" t="inlineStr">
-        <is>
-          <t>Progress:</t>
-        </is>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
         <f>COUNTIF(E:E,"✓")/10*100&amp;"%"</f>
         <v/>
       </c>
     </row>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="12" t="inlineStr">
-        <is>
-          <t>Learning rate (lr):</t>
-        </is>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="B5" s="27" t="n">
         <v>0.01</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
         <f>== Step 1: Output Gradient (∂L/∂Y_pred) ===</f>
         <v/>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="18" t="inlineStr">
-        <is>
-          <t>Formula: ∂L/∂y_pred_i = (1/n) × (y_pred_i - y_true_i)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
-    <row r="10">
-      <c r="A10" s="22" t="inlineStr">
-        <is>
-          <t>Sample</t>
-        </is>
-      </c>
-      <c r="B10" s="22" t="inlineStr">
-        <is>
-          <t>Calculation</t>
-        </is>
-      </c>
-      <c r="C10" s="22" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred</t>
-        </is>
-      </c>
-      <c r="D10" s="22" t="inlineStr">
-        <is>
-          <t>Student input</t>
-        </is>
-      </c>
-      <c r="E10" s="22" t="inlineStr">
-        <is>
-          <t>Verification</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="inlineStr">
-        <is>
-          <t>s1</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.9000 - 2.00)</t>
-        </is>
+    <row r="8" spans="1:6">
+      <c r="A8" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C11" s="26" t="n">
         <v>-0.11</v>
@@ -2373,16 +2545,12 @@
         <v/>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="12" t="inlineStr">
-        <is>
-          <t>s2</t>
-        </is>
-      </c>
-      <c r="B12" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.4500 - 1.50)</t>
-        </is>
+    <row r="12" spans="1:6">
+      <c r="A12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>106</v>
       </c>
       <c r="C12" s="26" t="n">
         <v>-0.105</v>
@@ -2393,16 +2561,12 @@
         <v/>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="12" t="inlineStr">
-        <is>
-          <t>s3</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (1.7000 - 1.00)</t>
-        </is>
+    <row r="13" spans="1:6">
+      <c r="A13" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>107</v>
       </c>
       <c r="C13" s="26" t="n">
         <v>0.07000000000000001</v>
@@ -2413,16 +2577,12 @@
         <v/>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="12" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="B14" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.9750 - 2.50)</t>
-        </is>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>108</v>
       </c>
       <c r="C14" s="26" t="n">
         <v>-0.1525</v>
@@ -2433,16 +2593,12 @@
         <v/>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="12" t="inlineStr">
-        <is>
-          <t>s5</t>
-        </is>
-      </c>
-      <c r="B15" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.1250 - 1.80)</t>
-        </is>
+    <row r="15" spans="1:6">
+      <c r="A15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>109</v>
       </c>
       <c r="C15" s="26" t="n">
         <v>-0.1675</v>
@@ -2453,16 +2609,12 @@
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="12" t="inlineStr">
-        <is>
-          <t>s6</t>
-        </is>
-      </c>
-      <c r="B16" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (1.2000 - 2.20)</t>
-        </is>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>110</v>
       </c>
       <c r="C16" s="26" t="n">
         <v>-0.1</v>
@@ -2473,16 +2625,12 @@
         <v/>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="12" t="inlineStr">
-        <is>
-          <t>s7</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.9500 - 1.20)</t>
-        </is>
+    <row r="17" spans="1:6">
+      <c r="A17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>111</v>
       </c>
       <c r="C17" s="26" t="n">
         <v>-0.025</v>
@@ -2493,16 +2641,12 @@
         <v/>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="12" t="inlineStr">
-        <is>
-          <t>s8</t>
-        </is>
-      </c>
-      <c r="B18" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.9500 - 1.70)</t>
-        </is>
+    <row r="18" spans="1:6">
+      <c r="A18" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>112</v>
       </c>
       <c r="C18" s="26" t="n">
         <v>-0.075</v>
@@ -2513,16 +2657,12 @@
         <v/>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="12" t="inlineStr">
-        <is>
-          <t>s9</t>
-        </is>
-      </c>
-      <c r="B19" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (1.3000 - 1.40)</t>
-        </is>
+    <row r="19" spans="1:6">
+      <c r="A19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>113</v>
       </c>
       <c r="C19" s="26" t="n">
         <v>-0.01</v>
@@ -2533,16 +2673,12 @@
         <v/>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="12" t="inlineStr">
-        <is>
-          <t>s10</t>
-        </is>
-      </c>
-      <c r="B20" s="20" t="inlineStr">
-        <is>
-          <t>(1/10) × (0.9000 - 2.00)</t>
-        </is>
+    <row r="20" spans="1:6">
+      <c r="A20" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>105</v>
       </c>
       <c r="C20" s="26" t="n">
         <v>-0.11</v>
@@ -2553,66 +2689,45 @@
         <v/>
       </c>
     </row>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23">
+    <row r="23" spans="1:6">
       <c r="A23" s="3">
         <f>== Step 2: Weight Gradient (∂L/∂W) ===</f>
         <v/>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="18" t="inlineStr">
-        <is>
-          <t>Formula: ∂L/∂W = X^T · (∂L/∂Y_pred) = X^T · dL_dY</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="18" t="inlineStr">
-        <is>
-          <t>Each weight: ∂L/∂w_j = Σ_i (x_ij × ∂L/∂y_pred_i)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" s="22" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-      <c r="B27" s="22" t="inlineStr">
-        <is>
-          <t>Calculation (column j of X · dL_dY)</t>
-        </is>
-      </c>
-      <c r="C27" s="22" t="inlineStr">
-        <is>
-          <t>∂L/∂w</t>
-        </is>
-      </c>
-      <c r="D27" s="22" t="inlineStr">
-        <is>
-          <t>Student input</t>
-        </is>
-      </c>
-      <c r="E27" s="22" t="inlineStr">
-        <is>
-          <t>Verification</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w1</t>
-        </is>
-      </c>
-      <c r="B28" s="20" t="inlineStr">
-        <is>
-          <t>1.0×-0.1100 + 0.5×-0.1050 + 2.0×0.0700 + ...</t>
-        </is>
+    <row r="24" spans="1:6">
+      <c r="A24" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>120</v>
       </c>
       <c r="C28" s="26" t="n">
         <v>-0.2425</v>
@@ -2623,16 +2738,12 @@
         <v/>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w2</t>
-        </is>
-      </c>
-      <c r="B29" s="20" t="inlineStr">
-        <is>
-          <t>2.0×-0.1100 + 1.0×-0.1050 + 0.0×0.0700 + ...</t>
-        </is>
+    <row r="29" spans="1:6">
+      <c r="A29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>122</v>
       </c>
       <c r="C29" s="26" t="n">
         <v>-0.70375</v>
@@ -2643,16 +2754,12 @@
         <v/>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w3</t>
-        </is>
-      </c>
-      <c r="B30" s="20" t="inlineStr">
-        <is>
-          <t>0.0×-0.1100 + 1.0×-0.1050 + -1.0×0.0700 + ...</t>
-        </is>
+    <row r="30" spans="1:6">
+      <c r="A30" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>124</v>
       </c>
       <c r="C30" s="26" t="n">
         <v>-0.63875</v>
@@ -2663,16 +2770,12 @@
         <v/>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w4</t>
-        </is>
-      </c>
-      <c r="B31" s="20" t="inlineStr">
-        <is>
-          <t>-1.0×-0.1100 + 0.0×-0.1050 + 1.0×0.0700 + ...</t>
-        </is>
+    <row r="31" spans="1:6">
+      <c r="A31" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>126</v>
       </c>
       <c r="C31" s="26" t="n">
         <v>-0.09875</v>
@@ -2683,16 +2786,12 @@
         <v/>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w5</t>
-        </is>
-      </c>
-      <c r="B32" s="20" t="inlineStr">
-        <is>
-          <t>1.0×-0.1100 + 0.5×-0.1050 + 0.0×0.0700 + ...</t>
-        </is>
+    <row r="32" spans="1:6">
+      <c r="A32" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="C32" s="26" t="n">
         <v>-0.38625</v>
@@ -2703,16 +2802,12 @@
         <v/>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w6</t>
-        </is>
-      </c>
-      <c r="B33" s="20" t="inlineStr">
-        <is>
-          <t>0.0×-0.1100 + -1.0×-0.1050 + 0.5×0.0700 + ...</t>
-        </is>
+    <row r="33" spans="1:6">
+      <c r="A33" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="C33" s="26" t="n">
         <v>-0.09</v>
@@ -2723,16 +2818,12 @@
         <v/>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w7</t>
-        </is>
-      </c>
-      <c r="B34" s="20" t="inlineStr">
-        <is>
-          <t>0.5×-0.1100 + 0.0×-0.1050 + 1.0×0.0700 + ...</t>
-        </is>
+    <row r="34" spans="1:6">
+      <c r="A34" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="26" t="n">
         <v>-0.03375</v>
@@ -2743,16 +2834,12 @@
         <v/>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂w8</t>
-        </is>
-      </c>
-      <c r="B35" s="20" t="inlineStr">
-        <is>
-          <t>-0.5×-0.1100 + 1.0×-0.1050 + 0.0×0.0700 + ...</t>
-        </is>
+    <row r="35" spans="1:6">
+      <c r="A35" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="C35" s="26" t="n">
         <v>-0.29375</v>
@@ -2763,17 +2850,12 @@
         <v/>
       </c>
     </row>
-    <row r="36"/>
-    <row r="37">
-      <c r="A37" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂b</t>
-        </is>
-      </c>
-      <c r="B37" s="20" t="inlineStr">
-        <is>
-          <t>Σ(∂L/∂y_pred_i) = Sum of all gradients</t>
-        </is>
+    <row r="37" spans="1:6">
+      <c r="A37" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="C37" s="26" t="n">
         <v>-0.785</v>
@@ -2784,58 +2866,40 @@
         <v/>
       </c>
     </row>
-    <row r="38"/>
-    <row r="39">
+    <row r="39" spans="1:6">
       <c r="A39" s="3">
         <f>== Step 3: Weight Update ===</f>
         <v/>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="18" t="inlineStr">
-        <is>
-          <t>Formula: w_new = w_old - lr × ∂L/∂w (lr = 0.01)</t>
-        </is>
-      </c>
-    </row>
-    <row r="41"/>
-    <row r="42">
-      <c r="A42" s="22" t="inlineStr">
-        <is>
-          <t>Weight</t>
-        </is>
-      </c>
-      <c r="B42" s="22" t="inlineStr">
-        <is>
-          <t>Existing value</t>
-        </is>
-      </c>
-      <c r="C42" s="22" t="inlineStr">
-        <is>
-          <t>Gradient</t>
-        </is>
-      </c>
-      <c r="D42" s="22" t="inlineStr">
-        <is>
-          <t>New value</t>
-        </is>
-      </c>
-      <c r="E42" s="22" t="inlineStr">
-        <is>
-          <t>Student input</t>
-        </is>
-      </c>
-      <c r="F42" s="22" t="inlineStr">
-        <is>
-          <t>Verification</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>w1</t>
-        </is>
+    <row r="40" spans="1:6">
+      <c r="A40" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F42" s="22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="B43" s="27" t="n">
         <v>0.2</v>
@@ -2852,11 +2916,9 @@
         <v/>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="12" t="inlineStr">
-        <is>
-          <t>w2</t>
-        </is>
+    <row r="44" spans="1:6">
+      <c r="A44" s="12" t="s">
+        <v>47</v>
       </c>
       <c r="B44" s="27" t="n">
         <v>0.3</v>
@@ -2873,11 +2935,9 @@
         <v/>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="12" t="inlineStr">
-        <is>
-          <t>w3</t>
-        </is>
+    <row r="45" spans="1:6">
+      <c r="A45" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="B45" s="27" t="n">
         <v>-0.1</v>
@@ -2894,11 +2954,9 @@
         <v/>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="12" t="inlineStr">
-        <is>
-          <t>w4</t>
-        </is>
+    <row r="46" spans="1:6">
+      <c r="A46" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="B46" s="27" t="n">
         <v>0.4</v>
@@ -2915,11 +2973,9 @@
         <v/>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="12" t="inlineStr">
-        <is>
-          <t>w5</t>
-        </is>
+    <row r="47" spans="1:6">
+      <c r="A47" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="B47" s="27" t="n">
         <v>-0.2</v>
@@ -2936,11 +2992,9 @@
         <v/>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="12" t="inlineStr">
-        <is>
-          <t>w6</t>
-        </is>
+    <row r="48" spans="1:6">
+      <c r="A48" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B48" s="27" t="n">
         <v>0.1</v>
@@ -2957,11 +3011,9 @@
         <v/>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="12" t="inlineStr">
-        <is>
-          <t>w7</t>
-        </is>
+    <row r="49" spans="1:6">
+      <c r="A49" s="12" t="s">
+        <v>62</v>
       </c>
       <c r="B49" s="27" t="n">
         <v>0.25</v>
@@ -2978,11 +3030,9 @@
         <v/>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="12" t="inlineStr">
-        <is>
-          <t>w8</t>
-        </is>
+    <row r="50" spans="1:6">
+      <c r="A50" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="B50" s="27" t="n">
         <v>-0.15</v>
@@ -2999,11 +3049,9 @@
         <v/>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="12" t="inlineStr">
-        <is>
-          <t>b</t>
-        </is>
+    <row r="51" spans="1:6">
+      <c r="A51" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B51" s="27" t="n">
         <v>0.5</v>
@@ -3020,39 +3068,31 @@
         <v/>
       </c>
     </row>
-    <row r="52"/>
-    <row r="53">
+    <row r="53" spans="1:6">
       <c r="A53" s="3">
         <f>== Verification: Confirm Loss Decrease ===</f>
         <v/>
       </c>
     </row>
-    <row r="54"/>
-    <row r="55">
-      <c r="A55" s="12" t="inlineStr">
-        <is>
-          <t>Loss before update:</t>
-        </is>
+    <row r="55" spans="1:6">
+      <c r="A55" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="B55" s="26" t="n">
         <v>0.538938</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="12" t="inlineStr">
-        <is>
-          <t>Loss after update:</t>
-        </is>
+    <row r="56" spans="1:6">
+      <c r="A56" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="B56" s="23" t="n">
         <v>0.520824</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="12" t="inlineStr">
-        <is>
-          <t>Loss reduction:</t>
-        </is>
+    <row r="57" spans="1:6">
+      <c r="A57" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="B57" s="28" t="n">
         <v>0.018114</v>
@@ -3060,22 +3100,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E100">
-    <cfRule type="expression" priority="1" dxfId="0">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>E1="✓"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="1">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>E1="✗"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F100">
-    <cfRule type="expression" priority="1" dxfId="0">
+    <cfRule dxfId="0" priority="1" type="expression">
       <formula>E1="✓"</formula>
     </cfRule>
-    <cfRule type="expression" priority="2" dxfId="1">
+    <cfRule dxfId="1" priority="2" type="expression">
       <formula>E1="✗"</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -3091,48 +3131,37 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col customWidth="1" max="1" min="1" width="25"/>
+    <col customWidth="1" max="2" min="2" width="15"/>
+    <col customWidth="1" max="3" min="3" width="15"/>
+    <col customWidth="1" max="4" min="4" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Answer Key</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3">
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3">
         <f>== Forward ===</f>
         <v/>
       </c>
-      <c r="B3" s="12" t="inlineStr">
-        <is>
-          <t>z_i</t>
-        </is>
-      </c>
-      <c r="C3" s="12" t="inlineStr">
-        <is>
-          <t>z_i</t>
-        </is>
-      </c>
-      <c r="D3" s="12" t="inlineStr">
-        <is>
-          <t>y_pred_i</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Sample 1</t>
-        </is>
+      <c r="B3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>146</v>
       </c>
       <c r="B4" t="n">
         <v>0.4</v>
@@ -3144,11 +3173,9 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Sample 2</t>
-        </is>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>147</v>
       </c>
       <c r="B5" t="n">
         <v>-0.05</v>
@@ -3160,11 +3187,9 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Sample 3</t>
-        </is>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>148</v>
       </c>
       <c r="B6" t="n">
         <v>1.2</v>
@@ -3176,11 +3201,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Sample 4</t>
-        </is>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>149</v>
       </c>
       <c r="B7" t="n">
         <v>0.475</v>
@@ -3192,11 +3215,9 @@
         <v>0.975</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Sample 5</t>
-        </is>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>150</v>
       </c>
       <c r="B8" t="n">
         <v>-0.375</v>
@@ -3208,11 +3229,9 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Sample 6</t>
-        </is>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>151</v>
       </c>
       <c r="B9" t="n">
         <v>0.7</v>
@@ -3224,11 +3243,9 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Sample 7</t>
-        </is>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>152</v>
       </c>
       <c r="B10" t="n">
         <v>0.45</v>
@@ -3240,11 +3257,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Sample 8</t>
-        </is>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>153</v>
       </c>
       <c r="B11" t="n">
         <v>0.45</v>
@@ -3256,11 +3271,9 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Sample 9</t>
-        </is>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>154</v>
       </c>
       <c r="B12" t="n">
         <v>0.8</v>
@@ -3272,11 +3285,9 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Sample 10</t>
-        </is>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>155</v>
       </c>
       <c r="B13" t="n">
         <v>0.4</v>
@@ -3288,446 +3299,355 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="14"/>
-    <row r="15">
+    <row r="15" spans="1:4">
       <c r="A15" s="3">
         <f>== Error &amp; Loss ===</f>
         <v/>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>error_1</t>
-        </is>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>156</v>
       </c>
       <c r="B16" t="n">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>error_2</t>
-        </is>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>157</v>
       </c>
       <c r="B17" t="n">
         <v>-1.05</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>error_3</t>
-        </is>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>158</v>
       </c>
       <c r="B18" t="n">
         <v>0.7</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>error_4</t>
-        </is>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>159</v>
       </c>
       <c r="B19" t="n">
         <v>-1.525</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>error_5</t>
-        </is>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>160</v>
       </c>
       <c r="B20" t="n">
         <v>-1.675</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>error_6</t>
-        </is>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>161</v>
       </c>
       <c r="B21" t="n">
         <v>-1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>error_7</t>
-        </is>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>162</v>
       </c>
       <c r="B22" t="n">
         <v>-0.25</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>error_8</t>
-        </is>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>163</v>
       </c>
       <c r="B23" t="n">
         <v>-0.75</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>error_9</t>
-        </is>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>164</v>
       </c>
       <c r="B24" t="n">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>error_10</t>
-        </is>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>165</v>
       </c>
       <c r="B25" t="n">
         <v>-1.1</v>
       </c>
     </row>
-    <row r="26"/>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Loss (MSE)</t>
-        </is>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>166</v>
       </c>
       <c r="B27" t="n">
         <v>0.538938</v>
       </c>
     </row>
-    <row r="28"/>
-    <row r="29">
+    <row r="29" spans="1:4">
       <c r="A29" s="3">
         <f>== Backward ===</f>
         <v/>
       </c>
     </row>
-    <row r="30"/>
-    <row r="31">
-      <c r="A31" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂Y_pred:</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_1</t>
-        </is>
+    <row r="31" spans="1:4">
+      <c r="A31" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>168</v>
       </c>
       <c r="B32" t="n">
         <v>-0.11</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_2</t>
-        </is>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>169</v>
       </c>
       <c r="B33" t="n">
         <v>-0.105</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_3</t>
-        </is>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>170</v>
       </c>
       <c r="B34" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_4</t>
-        </is>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>171</v>
       </c>
       <c r="B35" t="n">
         <v>-0.1525</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_5</t>
-        </is>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>172</v>
       </c>
       <c r="B36" t="n">
         <v>-0.1675</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_6</t>
-        </is>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>173</v>
       </c>
       <c r="B37" t="n">
         <v>-0.1</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_7</t>
-        </is>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>174</v>
       </c>
       <c r="B38" t="n">
         <v>-0.025</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_8</t>
-        </is>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>175</v>
       </c>
       <c r="B39" t="n">
         <v>-0.075</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_9</t>
-        </is>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>176</v>
       </c>
       <c r="B40" t="n">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>∂L/∂y_pred_10</t>
-        </is>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>177</v>
       </c>
       <c r="B41" t="n">
         <v>-0.11</v>
       </c>
     </row>
-    <row r="42"/>
-    <row r="43">
-      <c r="A43" s="12" t="inlineStr">
-        <is>
-          <t>∂L/∂W:</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>∂L/∂w1</t>
-        </is>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>119</v>
       </c>
       <c r="B44" t="n">
         <v>-0.2425</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>∂L/∂w2</t>
-        </is>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>121</v>
       </c>
       <c r="B45" t="n">
         <v>-0.70375</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>∂L/∂w3</t>
-        </is>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>123</v>
       </c>
       <c r="B46" t="n">
         <v>-0.63875</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>∂L/∂w4</t>
-        </is>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>125</v>
       </c>
       <c r="B47" t="n">
         <v>-0.09875</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>∂L/∂w5</t>
-        </is>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>127</v>
       </c>
       <c r="B48" t="n">
         <v>-0.38625</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>∂L/∂w6</t>
-        </is>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>129</v>
       </c>
       <c r="B49" t="n">
         <v>-0.09</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>∂L/∂w7</t>
-        </is>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>131</v>
       </c>
       <c r="B50" t="n">
         <v>-0.03375</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>∂L/∂w8</t>
-        </is>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>133</v>
       </c>
       <c r="B51" t="n">
         <v>-0.29375</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>∂L/∂b</t>
-        </is>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>135</v>
       </c>
       <c r="B52" t="n">
         <v>-0.785</v>
       </c>
     </row>
-    <row r="53"/>
-    <row r="54">
+    <row r="54" spans="1:4">
       <c r="A54" s="3">
         <f>== Updated Weights ===</f>
         <v/>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>w1_new</t>
-        </is>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>179</v>
       </c>
       <c r="B55" t="n">
         <v>0.202425</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>w2_new</t>
-        </is>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>180</v>
       </c>
       <c r="B56" t="n">
         <v>0.307037</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>w3_new</t>
-        </is>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>181</v>
       </c>
       <c r="B57" t="n">
         <v>-0.093613</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>w4_new</t>
-        </is>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>182</v>
       </c>
       <c r="B58" t="n">
         <v>0.400987</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>w5_new</t>
-        </is>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>183</v>
       </c>
       <c r="B59" t="n">
         <v>-0.196138</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>w6_new</t>
-        </is>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>184</v>
       </c>
       <c r="B60" t="n">
         <v>0.1009</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>w7_new</t>
-        </is>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>185</v>
       </c>
       <c r="B61" t="n">
         <v>0.250337</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>w8_new</t>
-        </is>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>186</v>
       </c>
       <c r="B62" t="n">
         <v>-0.147062</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>b_new</t>
-        </is>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>187</v>
       </c>
       <c r="B63" t="n">
         <v>0.50785</v>
       </c>
     </row>
-    <row r="64"/>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Loss after update</t>
-        </is>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>188</v>
       </c>
       <c r="B65" t="n">
         <v>0.520824</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>